--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>4.930115226412335</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>3.444555482474443</v>
+        <v>0.3630458632513767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>5.021907707863549</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-1.532700904233819</v>
+        <v>19.19812743658083</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.457587285166628</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-2.795366972602376</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-2.107498023488275</v>
+        <v>0.507956838644974</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.31761954538927</v>
+        <v>-5.592633745595466</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.4426822042908451</v>
+        <v>-9.964084247724703</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.9140166223623569</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>-0.08895626662497325</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-1.917110159754765</v>
+        <v>5.6395352704941</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>2.771597318554297</v>
+        <v>-5.440152375872254</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>6.701211448050892</v>
+        <v>-14.43639438706738</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2.585942866987878</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>3.46465162656866</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0.3916555001892696</v>
+        <v>1.724360951547554</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.799362536952542</v>
+        <v>9.349082908138451</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>-0.7668626796801914</v>
+        <v>27.15801420548429</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>4.253963781362402</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>0.3632935209776811</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>2.235144361296437</v>
+        <v>-0.6955733540840336</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.123182427147152</v>
+        <v>0.5389546843750148</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>9.032110753380396</v>
+        <v>-5.27893918837793</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.752870900283909</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>4.969095698764936</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>2.140109163629722</v>
+        <v>4.300339264728548</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>7.317297369612819</v>
+        <v>-4.232836797447693</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>13.00993884368147</v>
+        <v>-8.0930759205322</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>-1.479696720105139</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.961021989009962</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.757812450733121</v>
+        <v>8.296896928314457</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.260319658857736</v>
+        <v>7.942828065321739</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.6047141048934668</v>
+        <v>15.37760125310905</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>3.900127535411246</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>0.4564303275705672</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>3.007219331001743</v>
+        <v>-2.092856741436233</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>-0.05262415810141086</v>
+        <v>1.913895196850168</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.4863674759896908</v>
+        <v>6.97490799213798</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>0.03947433952959933</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.118783878065944</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.65135034788011</v>
+        <v>-1.259568900987018</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.459778471779982</v>
+        <v>4.861901970953975</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.972186691759292</v>
+        <v>9.631040506010535</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.192778679161944</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.90221275570699</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.98496562536319</v>
+        <v>0.5033587260849126</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>3.002208343813528</v>
+        <v>4.115488239647713</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>3.081053896920216</v>
+        <v>9.523050046161053</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>3.40836448860673</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>4.051238118429756</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>4.529725578554311</v>
+        <v>-0.3010260522302355</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.833579063543668</v>
+        <v>-0.117003051846476</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.952627688440802</v>
+        <v>-1.421675245489551</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>4.204850579584951</v>
+        <v>4.07381142256642</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>5.801778441820349</v>
+        <v>8.54956688663686</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>4.020433260014977</v>
+        <v>2.573390224036864</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.428490012850016</v>
+        <v>2.706783531850476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>2.799070570134488</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.569306918495818</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>3.238605209600021</v>
+        <v>3.825329033908775</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.585072989560922</v>
+        <v>4.46295719845704</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.280240870646334</v>
+        <v>5.237111551136597</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.499408824369565</v>
+        <v>5.264109583376908</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.857343756848829</v>
+        <v>7.819356632099961</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.53224976671227</v>
+        <v>3.656441317225112</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.278571461710422</v>
+        <v>-3.202316982060605</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>4.195393191694419</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>1.854313775373639</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.08225168705034</v>
+        <v>3.942709467505678</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.930612967629065</v>
+        <v>1.969952049420165</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.940846718276259</v>
+        <v>2.423519345863356</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.985458715495402</v>
+        <v>6.942957493752444</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-4.092959660133289</v>
+        <v>17.43645097609996</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.985458715495402</v>
+        <v>2.133862376612439</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.9921235861016009</v>
+        <v>-2.182504726469814</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>1.666553973046048</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-7.481301221503411</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-13.74537331374778</v>
+        <v>-0.2638638106667313</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-4.462312592191775</v>
+        <v>-5.603015914113896</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.653531771234085</v>
+        <v>-13.74537331374777</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-4.365687260408224</v>
+        <v>2.932994663878907</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>3.001742441498578</v>
+        <v>2.894715150804616</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-4.365687260408224</v>
+        <v>1.773820722495745</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.075048802121681</v>
+        <v>3.694490460041355</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.879266440112803</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>3.789096898895128</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>8.701423588527524</v>
+        <v>-0.04532879466145889</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.9316226168292641</v>
+        <v>1.312381597381518</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-5.354680295250647</v>
+        <v>8.701423588527524</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.27347919322387</v>
+        <v>-0.7538332529782865</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-1.071018547598579</v>
+        <v>-4.784481399264983</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.27347919322387</v>
+        <v>-2.404913754290983</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.708172843366884</v>
+        <v>-1.736119732506514</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>-2.620683231370946</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.01180411256014313</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>2.584340770833959</v>
+        <v>-3.179374983142691</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-1.297339083829474</v>
+        <v>-3.324604708321111</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-3.841638226671518</v>
+        <v>2.584340770833982</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.339436245206127</v>
+        <v>-2.598185084325777</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-4.378299676122155</v>
+        <v>-3.071148328823314</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.339436245206127</v>
+        <v>-2.901570548279864</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-4.311060450245541</v>
+        <v>-3.268007849027199</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-3.036556262700274</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-2.778595427920538</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.6673203033532027</v>
+        <v>-2.51939929628594</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.612361131107455</v>
+        <v>-2.440053088416461</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-4.879850927075092</v>
+        <v>-0.6673203033532138</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-3.451527003230626</v>
+        <v>-1.287508943286542</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-2.770717859908145</v>
+        <v>-4.200823682253607</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-3.451527003230626</v>
+        <v>-2.859191689251428</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-2.083043781012928</v>
+        <v>-2.883845406532493</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-2.953443685011514</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>-1.878320539643352</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.8972538974235111</v>
+        <v>-2.112604539331953</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.71630497783678</v>
+        <v>-0.6052121327035698</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.07508327003469262</v>
+        <v>-0.8972538974235111</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.75044229618867</v>
+        <v>0.1893861904177951</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.5257667805532051</v>
+        <v>0.1126281723122791</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-1.131442475565558</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-1.463023257418061</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.133862376612439</v>
+        <v>1.164487295548811</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.182504726469814</v>
+        <v>-13.80331328666087</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.2638638106667313</v>
+        <v>-7.134843267358026</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-5.603015914113896</v>
+        <v>2.473469344955737</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-13.74537331374777</v>
+        <v>7.549216998964536</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.932994663878907</v>
+        <v>3.285232806602445</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.894715150804616</v>
+        <v>4.648946574958646</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.773820722495745</v>
+        <v>1.56617146116742</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.694490460041355</v>
+        <v>0.9875809772451838</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.04532879466145889</v>
+        <v>-6.539839435602945</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.312381597381518</v>
+        <v>-1.781446606796455</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>8.701423588527524</v>
+        <v>0.1457978421785855</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.7538332529782865</v>
+        <v>4.03207823671119</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-4.784481399264983</v>
+        <v>19.81459356491751</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-2.404913754290983</v>
+        <v>-3.159022715375703</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.736119732506514</v>
+        <v>-11.32548012975856</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-3.179374983142691</v>
+        <v>-5.419975784955133</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-3.324604708321111</v>
+        <v>-8.265777451316225</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.584340770833982</v>
+        <v>-10.92701686886082</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.598185084325777</v>
+        <v>1.166938248772098</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-3.071148328823314</v>
+        <v>16.68718678695835</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.901570548279864</v>
+        <v>-2.536896655888554</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-3.268007849027199</v>
+        <v>1.532774510490742</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-2.51939929628594</v>
+        <v>1.613705666912457</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.440053088416461</v>
+        <v>-4.691918671600959</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.6673203033532138</v>
+        <v>-6.710877805392867</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.287508943286542</v>
+        <v>1.758584501904159</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-4.200823682253607</v>
+        <v>11.30020092100839</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.859191689251428</v>
+        <v>-3.187937113772676</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-2.883845406532493</v>
+        <v>-7.130744761216434</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-2.112604539331953</v>
+        <v>-2.069018842407955</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.6052121327035698</v>
+        <v>1.303232119845266</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.8972538974235111</v>
+        <v>4.240665037474844</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.1893861904177951</v>
+        <v>0.5908161348962215</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.1126281723122791</v>
+        <v>2.127099006366806</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-1.131442475565558</v>
+        <v>-1.60374568949776</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-1.463023257418061</v>
+        <v>-7.500482081224524</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>4.930115226412335</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.3630458632513767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>5.021907707863549</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>19.19812743658083</v>
+        <v>19.1981274365808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.457587285166628</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>0.507956838644974</v>
+        <v>0.5079568386449518</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,7 +468,7 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-9.964084247724703</v>
+        <v>-9.964084247724713</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.9140166223623569</v>
+        <v>-0.9140166223623458</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>5.6395352704941</v>
+        <v>5.639535270494123</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +496,13 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>-5.440152375872254</v>
+        <v>-5.440152375872276</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-14.43639438706738</v>
+        <v>-14.43639438706736</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -542,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>9.349082908138451</v>
+        <v>9.349082908138474</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>27.15801420548429</v>
+        <v>27.15801420548431</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,7 +553,7 @@
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>-0.6955733540840336</v>
+        <v>-0.6955733540840225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.5389546843750148</v>
+        <v>0.5389546843749926</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-4.232836797447693</v>
+        <v>-4.232836797447703</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-8.0930759205322</v>
+        <v>-8.093075920532211</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>-1.479696720105139</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>15.37760125310905</v>
+        <v>15.37760125310901</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>-2.092856741436233</v>
+        <v>-2.092856741436244</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +666,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.913895196850168</v>
+        <v>1.913895196850146</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>6.97490799213798</v>
+        <v>6.974907992137958</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>-1.259568900987018</v>
+        <v>-1.259568900987029</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>4.861901970953975</v>
+        <v>4.861901970954019</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -729,7 +717,7 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.192778679161944</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.115488239647713</v>
+        <v>4.115488239647735</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>9.523050046161053</v>
+        <v>9.52305004616103</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +751,13 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>3.40836448860673</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="D22">
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>-0.3010260522302355</v>
+        <v>-0.3010260522302244</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +768,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>-0.117003051846476</v>
+        <v>-0.1170030518464982</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>-1.421675245489551</v>
+        <v>-1.421675245489573</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +785,13 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>4.07381142256642</v>
+        <v>4.073811422566442</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>8.54956688663686</v>
+        <v>8.549566886636839</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>3.825329033908775</v>
+        <v>3.825329033908798</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,7 +836,7 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.46295719845704</v>
+        <v>4.462957198457018</v>
       </c>
       <c r="D27">
         <v>2020</v>
@@ -871,7 +859,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>7.819356632099961</v>
+        <v>7.819356632099983</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +870,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.656441317225112</v>
+        <v>3.65644131722509</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-3.202316982060605</v>
+        <v>-3.202316982060582</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.423519345863356</v>
+        <v>2.423519345863312</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -956,7 +944,7 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-13.80331328666087</v>
+        <v>-13.80331328666086</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>1.666553973046048</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-7.134843267358026</v>
+        <v>-7.134843267358049</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -990,7 +978,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>7.549216998964536</v>
+        <v>7.549216998964559</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>3.285232806602445</v>
+        <v>3.285232806602423</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.648946574958646</v>
+        <v>4.648946574958668</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.56617146116742</v>
+        <v>1.566171461167398</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.9875809772451838</v>
+        <v>0.9875809772451616</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>1.879266440112803</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-6.539839435602945</v>
+        <v>-6.539839435602913</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,7 +1040,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.781446606796455</v>
+        <v>-1.781446606796444</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -1092,7 +1080,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-11.32548012975856</v>
+        <v>-11.32548012975855</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1103,13 +1091,13 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>-2.620683231370946</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-5.419975784955133</v>
+        <v>-5.419975784955122</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1137,13 +1125,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>1.166938248772098</v>
+        <v>1.16693824877212</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>16.68718678695835</v>
+        <v>16.68718678695833</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.536896655888554</v>
+        <v>-2.536896655888543</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-3.036556262700274</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-4.691918671600959</v>
+        <v>-4.691918671600925</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-6.710877805392867</v>
+        <v>-6.71087780539289</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,7 +1193,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.758584501904159</v>
+        <v>1.758584501904181</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-3.187937113772676</v>
+        <v>-3.187937113772665</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-7.130744761216434</v>
+        <v>-7.130744761216423</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1262,7 +1250,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>4.240665037474844</v>
+        <v>4.240665037474822</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5908161348962215</v>
+        <v>0.5908161348962437</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1296,7 +1284,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-7.500482081224524</v>
+        <v>-7.500482081224535</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-7.500482081224535</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-0.7200474048664085</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-2.055952042396259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
